--- a/Arbeitszeit und Projektablaufplan/Paketbeschreibung.xlsx
+++ b/Arbeitszeit und Projektablaufplan/Paketbeschreibung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\NetDom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Arbeitszeit und Projektablaufplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AF620-97C5-45D6-8E84-8A503A202A51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paketbeschreibung" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Raspberry PI Besorgen</t>
   </si>
@@ -183,12 +184,18 @@
   </si>
   <si>
     <t>Impressum erstellen und in den Footer einfügen; SocialMedia?</t>
+  </si>
+  <si>
+    <t>Notwendige Software auf Raspberry PI installieren und Konfigurieren</t>
+  </si>
+  <si>
+    <t>Das vorhandene oder vorinstallierte Dateiverwaltungssystem mittels zusätzlicher Programm oder Konfigurationen für das Project anpassen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,14 +225,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -437,89 +438,98 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,19 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -556,33 +554,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -896,264 +915,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:4" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:4" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="2:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:3" s="21" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="12" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="2:4" s="6" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="2:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="2:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="D18" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="21" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="2:4" s="12" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="D23" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="D25" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="D26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19"/>
+      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="15" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
